--- a/Running projects/10 Pearls - NASTP/004- invoice for Mobilization advance..xlsx
+++ b/Running projects/10 Pearls - NASTP/004- invoice for Mobilization advance..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\10 Pearls - NASTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092B4DC9-B6A8-4406-9835-BD348D04119F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628B876B-5E53-4E61-A4A2-BB482BEEF839}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Supply" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Supply!$A$1:$D$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Supply!$A$1:$D$37</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t xml:space="preserve">Invoice </t>
   </si>
@@ -91,6 +91,12 @@
 Branch Code:    1397
 A/C #:                0745-4567-4100-5067
 IBAN #:              PK79 MUCB 0745-4567-4100-5067</t>
+  </si>
+  <si>
+    <t>Tax 10.5%</t>
+  </si>
+  <si>
+    <t>amount</t>
   </si>
 </sst>
 </file>
@@ -319,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -422,6 +428,9 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -440,8 +449,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -528,7 +540,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>311021</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="752474" cy="567068"/>
@@ -739,14 +751,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>174948</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>84105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>519152</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>29158</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>29159</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1109,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A11:F42"/>
+  <dimension ref="A11:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1145,8 +1157,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="17" t="s">
         <v>8</v>
       </c>
@@ -1171,12 +1183,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
     </row>
     <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="6"/>
@@ -1185,12 +1197,12 @@
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:6" s="11" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -1205,10 +1217,10 @@
       <c r="B19" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="44"/>
+      <c r="D19" s="45"/>
     </row>
     <row r="20" spans="1:6" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
@@ -1258,114 +1270,142 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="32"/>
-    </row>
-    <row r="26" spans="1:6" s="48" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
+      <c r="C25" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="50">
+        <f>D23*10.5%</f>
+        <v>157500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="32"/>
+      <c r="C27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="32">
+        <f>D23-D25</f>
+        <v>1342500</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="5"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="5"/>
       <c r="D28" s="32"/>
-      <c r="F28" s="37"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="32"/>
-    </row>
-    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="10"/>
+    </row>
+    <row r="29" spans="1:6" s="42" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="5"/>
       <c r="D30" s="32"/>
-      <c r="F30" s="36"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="10"/>
+      <c r="A31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="32"/>
+      <c r="F31" s="37"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="32"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+    <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="B33" s="10"/>
       <c r="C33" s="5"/>
       <c r="D33" s="32"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" s="36"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="10"/>
       <c r="C34" s="5"/>
       <c r="D34" s="32"/>
     </row>
-    <row r="35" spans="1:4" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="38" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="32"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="32"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="32"/>
+    </row>
+    <row r="38" spans="1:6" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="39">
+      <c r="D38" s="39">
         <f>D23*10.5%</f>
         <v>157500</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="8" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="41">
-        <f>D23-D35</f>
+      <c r="D40" s="41">
+        <f>D23-D38</f>
         <v>1342500</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="10"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="10"/>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="10"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" s="10"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="10"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="10"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="10"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1373,7 +1413,7 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A29:D29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0.31" header="0.3" footer="0.3"/>
